--- a/V2I Hub Application Tracking Worksheet.xlsx
+++ b/V2I Hub Application Tracking Worksheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stanley\Box Sync\TBL Project Files\100036384 - IVP\03 - Deliverables\6.1 OSADP Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\V2I RI\OSADP\V2I Hub 310\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6C2118-6FBA-4760-A694-D6619ABF1F5A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="12795"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RSD" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Newton, Diane B.</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0" shapeId="0">
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0" shapeId="0">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -96,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -120,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0" shapeId="0">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -144,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0" shapeId="0">
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -168,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="0" shapeId="0">
+    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -192,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0" shapeId="0">
+    <comment ref="B31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -216,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B34" authorId="0" shapeId="0">
+    <comment ref="B34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -245,7 +246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>Contract Title:</t>
   </si>
@@ -352,12 +353,6 @@
     <t>Battelle</t>
   </si>
   <si>
-    <t>Gregory Zink</t>
-  </si>
-  <si>
-    <t>zinkg@battelle.org</t>
-  </si>
-  <si>
     <t>Deb Curtis</t>
   </si>
   <si>
@@ -367,49 +362,61 @@
     <t>FHWA</t>
   </si>
   <si>
-    <t>Integrated Vehicle-To-Infrastructure Prototype (IVP)</t>
-  </si>
-  <si>
-    <t>DTFH61-12-D-00040-T-13008</t>
-  </si>
-  <si>
-    <t>Chris Stanley</t>
-  </si>
-  <si>
-    <t>stanley@battelle.org</t>
-  </si>
-  <si>
-    <t>703-413-7267</t>
-  </si>
-  <si>
     <t>202-493-3267</t>
   </si>
   <si>
-    <t>V2I Hub System Requirements</t>
-  </si>
-  <si>
-    <t>V2I Hub Interface Control Document (ICD)</t>
-  </si>
-  <si>
-    <t>V2I Hub Design</t>
-  </si>
-  <si>
-    <t>V2I Hub Plugin Creation Manual</t>
-  </si>
-  <si>
-    <t>V2I Hub Troubleshooting Guide</t>
-  </si>
-  <si>
-    <t>V2I Hub Sample Set-up Guide</t>
-  </si>
-  <si>
     <t>V2I Hub was developed to support jurisdictions in deploying connected vehicle technology by reducing integration issues and enabling use of their existing transportation management hardware and systems. V2I Hub is a software platform that utilizes plugins to translate messages between different devices and run transportation management and connected vehicle applications on roadside equipment.</t>
+  </si>
+  <si>
+    <t>David Neumeister</t>
+  </si>
+  <si>
+    <t>neumeister@battelle.org</t>
+  </si>
+  <si>
+    <t>614-424-4233</t>
+  </si>
+  <si>
+    <t>William Gibbs</t>
+  </si>
+  <si>
+    <t>gibbsw@battelle.org</t>
+  </si>
+  <si>
+    <t>614-424-3204</t>
+  </si>
+  <si>
+    <t>DTFH61-12-D-00040-T5013</t>
+  </si>
+  <si>
+    <t>V2I Reference Implementation Development</t>
+  </si>
+  <si>
+    <t>V2I Hub Guidebook</t>
+  </si>
+  <si>
+    <t>V2I Hub Deployment Guide</t>
+  </si>
+  <si>
+    <t>V2I Hub Plugins</t>
+  </si>
+  <si>
+    <t>V2I Hub Plugin Programming Guide</t>
+  </si>
+  <si>
+    <t>V2I HubAdministration Portal User Guide</t>
+  </si>
+  <si>
+    <t>V2I Hub Software Configuration Guide</t>
+  </si>
+  <si>
+    <t>V2I Hub Simulation Tool User Guide</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -570,6 +577,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -577,9 +587,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -675,6 +682,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -710,6 +734,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -885,11 +926,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,12 +943,12 @@
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
@@ -915,25 +956,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="C4" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
@@ -949,43 +990,43 @@
         <v>5</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
@@ -1076,13 +1117,13 @@
         <v>34</v>
       </c>
       <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" t="s">
         <v>42</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -1090,16 +1131,16 @@
         <v>24</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E24" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" t="s">
         <v>38</v>
-      </c>
-      <c r="F24" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -1138,13 +1179,13 @@
         <v>27</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29">
-        <v>6144243244</v>
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
@@ -1199,51 +1240,55 @@
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="24" t="s">
-        <v>46</v>
+      <c r="B35" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="24" t="s">
-        <v>47</v>
+      <c r="B36" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="24" t="s">
-        <v>48</v>
+      <c r="B37" t="s">
+        <v>53</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="24" t="s">
-        <v>49</v>
+      <c r="B38" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="21" t="s">
         <v>50</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="21"/>
       <c r="C42" s="16"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
@@ -1261,9 +1306,9 @@
     <mergeCell ref="F10:J10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E23" r:id="rId1"/>
-    <hyperlink ref="E24" r:id="rId2"/>
-    <hyperlink ref="D29" r:id="rId3"/>
+    <hyperlink ref="E23" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E24" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D29" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId4"/>
